--- a/Data/CADMINStudentManagementmodule.xlsx
+++ b/Data/CADMINStudentManagementmodule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\testerp\POM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\EdwinAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,16 +817,16 @@
         <v>12</v>
       </c>
       <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>14</v>
